--- a/doc/Aufgaben.xlsx
+++ b/doc/Aufgaben.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arbeit\FH Dortmund\Medizinische Informatik MSc Projects\2. SS23\compiler\compiler\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9021428-35DD-434B-96DA-31EAE30F6118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B00A8-0AFE-4C8D-8EB0-A21C1E6370DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BED1C43C-33A0-47E6-BE2F-EEFB5E1D0EA6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t>Status</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Path</t>
   </si>
   <si>
-    <t>.files()</t>
-  </si>
-  <si>
     <t>.toString()</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>p.toString()</t>
   </si>
   <si>
-    <t>.name()</t>
-  </si>
-  <si>
     <t>.remove()</t>
   </si>
   <si>
@@ -194,14 +188,104 @@
     <t>.moveTo(Path)</t>
   </si>
   <si>
+    <t>Files</t>
+  </si>
+  <si>
     <t>&lt;stringValue&gt;</t>
+  </si>
+  <si>
+    <t>z. B. /home/test oder C:/Programs 64/Test &lt;-- Kann Leerzeichen enthalten?</t>
+  </si>
+  <si>
+    <t>.rename(String)</t>
+  </si>
+  <si>
+    <t>.getContent()</t>
+  </si>
+  <si>
+    <t>.type</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>.path</t>
+  </si>
+  <si>
+    <t>.files</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Set&lt;Type&gt;</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>.contains()</t>
+  </si>
+  <si>
+    <t>{}, { varA }, { 2, 3, varA}</t>
+  </si>
+  <si>
+    <t>{ 2 } ^ { 3 }</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map&lt;typ1, typ2&gt;</t>
+  </si>
+  <si>
+    <t>map[element]</t>
+  </si>
+  <si>
+    <t>.containtKey(element)</t>
+  </si>
+  <si>
+    <t>[[key: value], [key2: value2]]</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>feld[index]</t>
+  </si>
+  <si>
+    <t>Map&lt;String, int&gt; x = [["alter": 23], ["hoehe": 178], ["test": 34]]</t>
+  </si>
+  <si>
+    <t>Anweisungen</t>
+  </si>
+  <si>
+    <t>if / if else</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>Blöcke {}</t>
+  </si>
+  <si>
+    <t>Leere Anweisung ;</t>
+  </si>
+  <si>
+    <t>Ausdrücke f() + y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +293,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -227,14 +323,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF38F5A-1DAD-46D8-A936-64A07BE8EE16}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +675,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
@@ -584,6 +686,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -592,26 +697,41 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -620,16 +740,25 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -638,31 +767,49 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -670,12 +817,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -683,7 +836,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
@@ -691,7 +847,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -699,7 +858,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -707,7 +869,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -715,7 +880,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -723,7 +891,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
@@ -731,7 +902,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -739,7 +913,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
@@ -747,12 +924,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
@@ -760,22 +943,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -783,7 +978,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -791,45 +989,303 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
         <v>44</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>52</v>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Aufgaben.xlsx
+++ b/doc/Aufgaben.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arbeit\FH Dortmund\Medizinische Informatik MSc Projects\2. SS23\compiler\compiler\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B00A8-0AFE-4C8D-8EB0-A21C1E6370DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96A3E98-F0BE-4B64-8059-C4CC6DA4F7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BED1C43C-33A0-47E6-BE2F-EEFB5E1D0EA6}"/>
   </bookViews>
@@ -254,9 +254,6 @@
     <t>feld[index]</t>
   </si>
   <si>
-    <t>Map&lt;String, int&gt; x = [["alter": 23], ["hoehe": 178], ["test": 34]]</t>
-  </si>
-  <si>
     <t>Anweisungen</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>Ausdrücke f() + y</t>
+  </si>
+  <si>
+    <t>Map&lt;String, int&gt; x = ["alter": 23, "hoehe": 178, "test": 34]</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,7 +310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -333,7 +333,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF38F5A-1DAD-46D8-A936-64A07BE8EE16}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
         <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
